--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125152a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125152a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,6 +612,24 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3.3</v>
+      </c>
+      <c r="D6">
+        <v>10.26</v>
+      </c>
+      <c r="E6">
+        <v>4.8</v>
+      </c>
+      <c r="F6">
+        <v>10.02</v>
+      </c>
+      <c r="G6">
+        <v>12.32</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -624,19 +639,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>6.14</v>
       </c>
       <c r="D7">
-        <v>10.26</v>
+        <v>21.14</v>
       </c>
       <c r="E7">
-        <v>4.8</v>
+        <v>11.13</v>
       </c>
       <c r="F7">
-        <v>10.02</v>
+        <v>24.94</v>
       </c>
       <c r="G7">
-        <v>12.32</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -647,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.14</v>
+        <v>5.42</v>
       </c>
       <c r="D8">
-        <v>21.14</v>
+        <v>19.9</v>
       </c>
       <c r="E8">
-        <v>11.13</v>
+        <v>13.01</v>
       </c>
       <c r="F8">
-        <v>24.94</v>
+        <v>42.54</v>
       </c>
       <c r="G8">
-        <v>23.74</v>
+        <v>26.31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -670,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.42</v>
+        <v>7.06</v>
       </c>
       <c r="D9">
-        <v>19.9</v>
+        <v>30.46</v>
       </c>
       <c r="E9">
-        <v>13.01</v>
+        <v>11.1</v>
       </c>
       <c r="F9">
-        <v>42.54</v>
+        <v>34.03</v>
       </c>
       <c r="G9">
-        <v>26.31</v>
+        <v>36.02</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -693,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.06</v>
+        <v>7.99</v>
       </c>
       <c r="D10">
-        <v>30.46</v>
+        <v>36.75</v>
       </c>
       <c r="E10">
-        <v>11.1</v>
+        <v>21.97</v>
       </c>
       <c r="F10">
-        <v>34.03</v>
+        <v>55.36</v>
       </c>
       <c r="G10">
-        <v>36.02</v>
+        <v>71.97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -716,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.99</v>
+        <v>6.52</v>
       </c>
       <c r="D11">
-        <v>36.75</v>
+        <v>19.44</v>
       </c>
       <c r="E11">
-        <v>21.97</v>
+        <v>7.21</v>
       </c>
       <c r="F11">
-        <v>55.36</v>
+        <v>14.14</v>
       </c>
       <c r="G11">
-        <v>71.97</v>
+        <v>20.62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -739,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.52</v>
+        <v>10.58</v>
       </c>
       <c r="D12">
-        <v>19.44</v>
+        <v>29.96</v>
       </c>
       <c r="E12">
-        <v>7.21</v>
+        <v>20.31</v>
       </c>
       <c r="F12">
-        <v>14.14</v>
+        <v>47.93</v>
       </c>
       <c r="G12">
-        <v>20.62</v>
+        <v>68.86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -762,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.58</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D13">
-        <v>29.96</v>
+        <v>30.31</v>
       </c>
       <c r="E13">
-        <v>20.31</v>
+        <v>11.6</v>
       </c>
       <c r="F13">
-        <v>47.93</v>
+        <v>27.95</v>
       </c>
       <c r="G13">
-        <v>68.86</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -785,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.279999999999999</v>
+        <v>2.43</v>
       </c>
       <c r="D14">
-        <v>30.31</v>
+        <v>9.32</v>
       </c>
       <c r="E14">
+        <v>3.57</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
         <v>11.6</v>
-      </c>
-      <c r="F14">
-        <v>27.95</v>
-      </c>
-      <c r="G14">
-        <v>20.68</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -808,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.43</v>
+        <v>10.93</v>
       </c>
       <c r="D15">
-        <v>9.32</v>
+        <v>25.17</v>
       </c>
       <c r="E15">
-        <v>3.57</v>
+        <v>12.74</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>23.01</v>
       </c>
       <c r="G15">
-        <v>11.6</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -831,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.93</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D16">
-        <v>25.17</v>
+        <v>46.77</v>
       </c>
       <c r="E16">
-        <v>12.74</v>
+        <v>12.34</v>
       </c>
       <c r="F16">
-        <v>23.01</v>
+        <v>25.29</v>
       </c>
       <c r="G16">
-        <v>37.14</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -854,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.609999999999999</v>
+        <v>4.62</v>
       </c>
       <c r="D17">
-        <v>46.77</v>
+        <v>15.65</v>
       </c>
       <c r="E17">
-        <v>12.34</v>
+        <v>7.18</v>
       </c>
       <c r="F17">
-        <v>25.29</v>
+        <v>16.69</v>
       </c>
       <c r="G17">
-        <v>21.95</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -877,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.62</v>
+        <v>6.58</v>
       </c>
       <c r="D18">
-        <v>15.65</v>
+        <v>41.6</v>
       </c>
       <c r="E18">
-        <v>7.18</v>
+        <v>16.02</v>
       </c>
       <c r="F18">
-        <v>16.69</v>
+        <v>26.49</v>
       </c>
       <c r="G18">
-        <v>22.39</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -900,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.58</v>
+        <v>9.44</v>
       </c>
       <c r="D19">
-        <v>41.6</v>
+        <v>33.28</v>
       </c>
       <c r="E19">
-        <v>16.02</v>
+        <v>12.61</v>
       </c>
       <c r="F19">
-        <v>26.49</v>
+        <v>42.91</v>
       </c>
       <c r="G19">
-        <v>29.84</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -923,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.44</v>
+        <v>5.78</v>
       </c>
       <c r="D20">
-        <v>33.28</v>
+        <v>20.25</v>
       </c>
       <c r="E20">
-        <v>12.61</v>
+        <v>9.76</v>
       </c>
       <c r="F20">
-        <v>42.91</v>
+        <v>26.42</v>
       </c>
       <c r="G20">
-        <v>36.25</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -946,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.78</v>
+        <v>7.92</v>
       </c>
       <c r="D21">
-        <v>20.25</v>
+        <v>56.59</v>
       </c>
       <c r="E21">
-        <v>9.76</v>
+        <v>19.57</v>
       </c>
       <c r="F21">
-        <v>26.42</v>
+        <v>32.19</v>
       </c>
       <c r="G21">
-        <v>28.09</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -969,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.92</v>
+        <v>8.1</v>
       </c>
       <c r="D22">
-        <v>56.59</v>
+        <v>34.67</v>
       </c>
       <c r="E22">
-        <v>19.57</v>
+        <v>18.96</v>
       </c>
       <c r="F22">
-        <v>32.19</v>
+        <v>27.37</v>
       </c>
       <c r="G22">
-        <v>15.53</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -992,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.1</v>
+        <v>4.97</v>
       </c>
       <c r="D23">
-        <v>34.67</v>
+        <v>14.81</v>
       </c>
       <c r="E23">
-        <v>18.96</v>
+        <v>5.78</v>
       </c>
       <c r="F23">
-        <v>27.37</v>
+        <v>16.84</v>
       </c>
       <c r="G23">
-        <v>42.13</v>
+        <v>18.33</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1015,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.97</v>
+        <v>1.77</v>
       </c>
       <c r="D24">
-        <v>14.81</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E24">
-        <v>5.78</v>
+        <v>4.12</v>
       </c>
       <c r="F24">
-        <v>16.84</v>
+        <v>7.14</v>
       </c>
       <c r="G24">
-        <v>18.33</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1038,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.77</v>
+        <v>2.88</v>
       </c>
       <c r="D25">
-        <v>8.859999999999999</v>
+        <v>16.11</v>
       </c>
       <c r="E25">
-        <v>4.12</v>
+        <v>5.36</v>
       </c>
       <c r="F25">
-        <v>7.14</v>
+        <v>9.17</v>
       </c>
       <c r="G25">
-        <v>13.48</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1061,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2.88</v>
+        <v>7.11</v>
       </c>
       <c r="D26">
-        <v>16.11</v>
+        <v>34.89</v>
       </c>
       <c r="E26">
-        <v>5.36</v>
+        <v>12.2</v>
       </c>
       <c r="F26">
-        <v>9.17</v>
+        <v>24.63</v>
       </c>
       <c r="G26">
-        <v>15.76</v>
+        <v>39.27</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1084,19 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>7.11</v>
+        <v>3.94</v>
       </c>
       <c r="D27">
-        <v>34.89</v>
+        <v>18.15</v>
       </c>
       <c r="E27">
-        <v>12.2</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F27">
-        <v>24.63</v>
-      </c>
-      <c r="G27">
-        <v>39.27</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1107,16 +1119,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3.94</v>
+        <v>2.65</v>
       </c>
       <c r="D28">
-        <v>18.15</v>
+        <v>13.66</v>
       </c>
       <c r="E28">
-        <v>9.369999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="F28">
-        <v>22.31</v>
+        <v>12.14</v>
+      </c>
+      <c r="G28">
+        <v>24.13</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1127,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2.65</v>
+        <v>2.29</v>
       </c>
       <c r="D29">
-        <v>13.66</v>
+        <v>10.2</v>
       </c>
       <c r="E29">
-        <v>7.4</v>
+        <v>4.51</v>
       </c>
       <c r="F29">
-        <v>12.14</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G29">
-        <v>24.13</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1150,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.29</v>
+        <v>3.56</v>
       </c>
       <c r="D30">
-        <v>10.2</v>
+        <v>15.4</v>
       </c>
       <c r="E30">
-        <v>4.51</v>
+        <v>6.94</v>
       </c>
       <c r="F30">
-        <v>8.359999999999999</v>
+        <v>13.54</v>
       </c>
       <c r="G30">
-        <v>12.56</v>
+        <v>27.26</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1173,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>3.56</v>
+        <v>4.99</v>
       </c>
       <c r="D31">
-        <v>15.4</v>
+        <v>30.08</v>
       </c>
       <c r="E31">
-        <v>6.94</v>
+        <v>11.93</v>
       </c>
       <c r="F31">
-        <v>13.54</v>
+        <v>17.33</v>
       </c>
       <c r="G31">
-        <v>27.26</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1196,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4.99</v>
+        <v>3.5</v>
       </c>
       <c r="D32">
-        <v>30.08</v>
+        <v>14.86</v>
       </c>
       <c r="E32">
-        <v>11.93</v>
+        <v>6.45</v>
       </c>
       <c r="F32">
-        <v>17.33</v>
+        <v>13.48</v>
       </c>
       <c r="G32">
-        <v>23.22</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1219,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>2.49</v>
       </c>
       <c r="D33">
-        <v>14.86</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="E33">
-        <v>6.45</v>
+        <v>5.1</v>
       </c>
       <c r="F33">
-        <v>13.48</v>
+        <v>9.09</v>
       </c>
       <c r="G33">
-        <v>16.99</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1242,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.49</v>
+        <v>6.56</v>
       </c>
       <c r="D34">
-        <v>9.289999999999999</v>
+        <v>18.88</v>
       </c>
       <c r="E34">
-        <v>5.1</v>
+        <v>11.64</v>
       </c>
       <c r="F34">
-        <v>9.09</v>
+        <v>14.64</v>
       </c>
       <c r="G34">
-        <v>16.65</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1265,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>6.56</v>
+        <v>5.68</v>
       </c>
       <c r="D35">
-        <v>18.88</v>
+        <v>19.57</v>
       </c>
       <c r="E35">
-        <v>11.64</v>
+        <v>11.49</v>
       </c>
       <c r="F35">
-        <v>14.64</v>
+        <v>23.93</v>
       </c>
       <c r="G35">
-        <v>31.27</v>
+        <v>29.67</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1288,41 +1303,18 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5.68</v>
+        <v>3.66</v>
       </c>
       <c r="D36">
-        <v>19.57</v>
+        <v>14.59</v>
       </c>
       <c r="E36">
-        <v>11.49</v>
+        <v>7.16</v>
       </c>
       <c r="F36">
-        <v>23.93</v>
+        <v>15.68</v>
       </c>
       <c r="G36">
-        <v>29.67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>3.66</v>
-      </c>
-      <c r="D37">
-        <v>14.59</v>
-      </c>
-      <c r="E37">
-        <v>7.16</v>
-      </c>
-      <c r="F37">
-        <v>15.68</v>
-      </c>
-      <c r="G37">
         <v>27.09</v>
       </c>
     </row>
